--- a/db-structure.xlsx
+++ b/db-structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -31,55 +31,67 @@
     <t xml:space="preserve">Post</t>
   </si>
   <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">post_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">username</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">author</t>
+    <t xml:space="preserve">author_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile_id</t>
   </si>
   <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
+    <t xml:space="preserve">bio</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joined_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">is_active</t>
   </si>
   <si>
-    <t xml:space="preserve">photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joined_date</t>
-  </si>
-  <si>
     <t xml:space="preserve">likes</t>
   </si>
   <si>
-    <t xml:space="preserve">likes_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile_id</t>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">followers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">following</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posts</t>
   </si>
 </sst>
 </file>
@@ -257,17 +269,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.86"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,99 +294,107 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>15</v>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/db-structure.xlsx
+++ b/db-structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Post</t>
   </si>
   <si>
-    <t xml:space="preserve">Comment</t>
+    <t xml:space="preserve">Follow</t>
   </si>
   <si>
     <t xml:space="preserve">Like</t>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">follower_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">post_id</t>
   </si>
   <si>
@@ -58,28 +61,25 @@
     <t xml:space="preserve">email</t>
   </si>
   <si>
-    <t xml:space="preserve">bio</t>
-  </si>
-  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">is_active</t>
+  </si>
+  <si>
     <t xml:space="preserve">photo</t>
   </si>
   <si>
     <t xml:space="preserve">joined_date</t>
   </si>
   <si>
-    <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
     <t xml:space="preserve">likes</t>
   </si>
   <si>
-    <t xml:space="preserve">comments</t>
+    <t xml:space="preserve">admin</t>
   </si>
   <si>
     <t xml:space="preserve">followers</t>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_login</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,7 +195,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -269,13 +283,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.94"/>
@@ -315,86 +329,90 @@
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
